--- a/data/long_razon/BESCORE_R-Estudios-long_razon.xlsx
+++ b/data/long_razon/BESCORE_R-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.3350237097106772</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2045063044215192</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.02800516205299456</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.6834098570489257</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>-0.1414226933185867</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.7617997991961515</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.1529392195831448</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.2495107606956445</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>-0.231197622908331</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.2403417784464359</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.06634494444935912</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.4005365555207137</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.6130158751893031</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.496473240110277</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.295910072460827</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.1768273093557245</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.3822016986140783</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.3122150455082163</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.05843187709021773</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.02480953471187149</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.4055867385548035</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.02793806604908821</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.09683931994374978</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.1516820880890035</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>-0.01555133368174048</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.09480100915872471</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2302879128951952</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.354340359804553</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>0.1224833799016281</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.403514791189857</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.3770264335462207</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.6603902101759309</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>0.003491557869575827</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5875673730901968</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.2418608274370607</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.7441278678690412</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.4539221727579689</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6745244641709888</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2552952047886382</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.04767362821444425</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-0.4160931614906207</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.673644544486359</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.003335760725549815</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2179023920904882</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>-0.4346863753547562</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.6740838512525881</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.1266744196386707</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.1305569281297782</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5744453943206113</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.3645601900888241</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.07575605904689585</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2236683112146101</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.5250184045859974</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.3928435733825761</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1258174938579164</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.346136802996905</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>-0.5197217275770475</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.4645626237873032</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>0.01045045792356381</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.2416110500779603</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.3235409342355448</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.080419513444742</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4955293945438304</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1877137638175532</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>-0.2923393660802721</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.009331550822416</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.143462101613706</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.05412815752771858</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>-0.3505998867218639</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.9525030086839815</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.2601419254882341</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.003398218620490724</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.5730402097444027</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.096126882090934</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.0190769919754779</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2078047654948662</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.6107067528886808</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.478668092102924</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1017143676022999</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.02496198529280844</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.5926886232540545</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>1.284126523093841</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.04590410035277957</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.07980813910297462</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.682707702925792</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.6734272080409182</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1368660681618931</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.0193336826335464</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.6962479187195659</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1.019156006582665</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2176321231867143</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1741266626063839</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.6635341851780404</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.9753495107230025</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1464880372121993</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.05399212971347549</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.4410313653674824</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.655054816586344</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.2153454836528085</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4788948311019215</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-0.5201297793083591</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.130316882346881</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.0329517806968499</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.1409766073959698</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>-0.5042981717606293</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.720687064418376</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.07058649580940013</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.2259681209410794</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.4846581993609043</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6062519378789436</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1188292882799829</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1310435703632855</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.4540234830778409</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.9262189074635043</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.003296883682011391</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.05341101540371809</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>-0.4688040736208594</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.7629538830002858</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.05505991479598276</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.03206341583855075</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5636374837125683</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3794217792513584</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.00711683710073745</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.008402517453018413</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.5238230732568537</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.708037883824681</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.08142918270939041</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1567209040744077</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>-0.5235313032973609</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.602584042762114</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.008327856830439189</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.05498308102596588</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.3968409496151663</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.869072617707399</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.256576213713839</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.3083291334706009</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>-0.3817086876527849</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.184339287554212</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.08651308463419109</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.06571744914486907</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>-0.4129305079352699</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.94835770607023</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.1332378102674956</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.1244700299630972</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
